--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_200/Tests_Estadisticos/dm_summary_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_200/Tests_Estadisticos/dm_summary_Lineal_No_Estacionario_ARIMA.xlsx
@@ -31,31 +31,31 @@
     <t>ECRPS_Mejor</t>
   </si>
   <si>
+    <t>Block Bootstrapping</t>
+  </si>
+  <si>
     <t>AREPD</t>
   </si>
   <si>
-    <t>Block Bootstrapping</t>
+    <t>AV-MCPS</t>
+  </si>
+  <si>
+    <t>DeepAR</t>
+  </si>
+  <si>
+    <t>EnCQR-LSTM</t>
+  </si>
+  <si>
+    <t>LSPM</t>
+  </si>
+  <si>
+    <t>LSPMW</t>
+  </si>
+  <si>
+    <t>MCPS</t>
   </si>
   <si>
     <t>Sieve Bootstrap</t>
-  </si>
-  <si>
-    <t>DeepAR</t>
-  </si>
-  <si>
-    <t>AV-MCPS</t>
-  </si>
-  <si>
-    <t>EnCQR-LSTM</t>
-  </si>
-  <si>
-    <t>LSPM</t>
-  </si>
-  <si>
-    <t>LSPMW</t>
-  </si>
-  <si>
-    <t>MCPS</t>
   </si>
   <si>
     <t>4/10</t>
@@ -459,7 +459,7 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>9.11424723548325</v>
+        <v>10.43818135404258</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -467,16 +467,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3">
-        <v>102.4</v>
+        <v>25.6</v>
       </c>
       <c r="D3">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>10.43818135404258</v>
+        <v>9.11424723548325</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -484,16 +484,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4">
-        <v>25.6</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="E4">
-        <v>0.5366137304080879</v>
+        <v>2.997357133040603</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -527,7 +527,7 @@
         <v>40</v>
       </c>
       <c r="E6">
-        <v>2.997357133040603</v>
+        <v>4.308451514263713</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -541,10 +541,10 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="E7">
-        <v>4.308451514263713</v>
+        <v>1.073439263101331</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -561,7 +561,7 @@
         <v>200</v>
       </c>
       <c r="E8">
-        <v>1.073439263101331</v>
+        <v>1.074735978208519</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -575,10 +575,10 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="E9">
-        <v>1.074735978208519</v>
+        <v>2.890950949747069</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="E10">
-        <v>2.890950949747069</v>
+        <v>0.5366137304080879</v>
       </c>
     </row>
   </sheetData>
